--- a/data/T29R10_data_final.xlsx
+++ b/data/T29R10_data_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Ecology\Student_folders_&amp;_files\Kara 2020\GLO\Sage_GLO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CF53CA-50AC-4671-A0B0-B6816875A398}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE484E5D-6D37-413D-82A5-DC92148C297A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{BB609BF1-C2AA-48E3-B38E-C7DC662A1D37}"/>
+    <workbookView xWindow="2265" yWindow="1830" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{BB609BF1-C2AA-48E3-B38E-C7DC662A1D37}"/>
   </bookViews>
   <sheets>
     <sheet name="1880Survey" sheetId="1" r:id="rId1"/>
@@ -350,7 +350,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="168">
   <si>
     <t>Survey_type</t>
   </si>
@@ -854,9 +854,6 @@
   </si>
   <si>
     <t>29-10-06-W</t>
-  </si>
-  <si>
-    <t>Segment_ID</t>
   </si>
 </sst>
 </file>
@@ -3683,598 +3680,818 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{197E65E2-17F4-4302-B747-81A91E907320}">
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
         <v>63</v>
       </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
         <v>74</v>
       </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
         <v>99</v>
       </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
         <v>110</v>
       </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
         <v>146</v>
       </c>
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
         <v>147</v>
       </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
         <v>64</v>
       </c>
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
         <v>75</v>
       </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
         <v>100</v>
       </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
         <v>111</v>
       </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
         <v>148</v>
       </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
         <v>167</v>
       </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
         <v>145</v>
       </c>
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
         <v>166</v>
       </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
         <v>109</v>
       </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
         <v>98</v>
       </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
         <v>73</v>
       </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
         <v>62</v>
       </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
         <v>61</v>
       </c>
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
         <v>72</v>
       </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
         <v>97</v>
       </c>
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
         <v>108</v>
       </c>
-      <c r="B23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
         <v>143</v>
       </c>
-      <c r="B24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
         <v>144</v>
       </c>
-      <c r="B25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
         <v>46</v>
       </c>
-      <c r="B26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
         <v>142</v>
       </c>
-      <c r="B27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
         <v>107</v>
       </c>
-      <c r="B28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
         <v>96</v>
       </c>
-      <c r="B29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
         <v>71</v>
       </c>
-      <c r="B30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
         <v>60</v>
       </c>
-      <c r="B31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
         <v>59</v>
       </c>
-      <c r="B32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
         <v>70</v>
       </c>
-      <c r="B33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
         <v>95</v>
       </c>
-      <c r="B34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
         <v>106</v>
       </c>
-      <c r="B35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
         <v>140</v>
       </c>
-      <c r="B36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
         <v>141</v>
       </c>
-      <c r="B37" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" t="s">
         <v>45</v>
       </c>
-      <c r="B38" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" t="s">
         <v>139</v>
       </c>
-      <c r="B39" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" t="s">
         <v>105</v>
       </c>
-      <c r="B40" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" t="s">
         <v>94</v>
       </c>
-      <c r="B41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" t="s">
         <v>69</v>
       </c>
-      <c r="B42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" t="s">
         <v>58</v>
       </c>
-      <c r="B43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" t="s">
         <v>57</v>
       </c>
-      <c r="B44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" t="s">
         <v>68</v>
       </c>
-      <c r="B45" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" t="s">
         <v>93</v>
       </c>
-      <c r="B46" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" t="s">
         <v>104</v>
       </c>
-      <c r="B47" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" t="s">
         <v>137</v>
       </c>
-      <c r="B48" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" t="s">
         <v>138</v>
       </c>
-      <c r="B49" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" t="s">
         <v>38</v>
       </c>
-      <c r="B50" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" t="s">
         <v>136</v>
       </c>
-      <c r="B51" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" t="s">
         <v>103</v>
       </c>
-      <c r="B52" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" t="s">
         <v>92</v>
       </c>
-      <c r="B53" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" t="s">
         <v>67</v>
       </c>
-      <c r="B54" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" t="s">
         <v>56</v>
       </c>
-      <c r="B55" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" t="s">
         <v>50</v>
       </c>
-      <c r="B56" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" t="s">
         <v>66</v>
       </c>
-      <c r="B57" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" t="s">
         <v>91</v>
       </c>
-      <c r="B58" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" t="s">
         <v>102</v>
       </c>
-      <c r="B59" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" t="s">
         <v>134</v>
       </c>
-      <c r="B60" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" t="s">
         <v>135</v>
       </c>
-      <c r="B61" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62" t="s">
         <v>37</v>
       </c>
-      <c r="B62" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" t="s">
         <v>149</v>
       </c>
-      <c r="B63" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" t="s">
         <v>101</v>
       </c>
-      <c r="B64" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" t="s">
         <v>90</v>
       </c>
-      <c r="B65" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" t="s">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>25</v>
+      </c>
+      <c r="B67" t="s">
         <v>49</v>
       </c>
-      <c r="B67" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68" t="s">
         <v>26</v>
       </c>
-      <c r="B68" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69" t="s">
         <v>31</v>
       </c>
-      <c r="B69" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>25</v>
+      </c>
+      <c r="B70" t="s">
         <v>32</v>
       </c>
-      <c r="B70" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>25</v>
+      </c>
+      <c r="B71" t="s">
         <v>34</v>
       </c>
-      <c r="B71" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>25</v>
+      </c>
+      <c r="B72" t="s">
         <v>35</v>
       </c>
-      <c r="B72" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" t="s">
         <v>36</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>42</v>
       </c>
     </row>
